--- a/examples/extract_book_info/vsegpt_generations.xlsx
+++ b/examples/extract_book_info/vsegpt_generations.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stas\NextCloud\GitHub\HomeLibraryAI\examples\extract_book_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{75A21B4A-CA4E-4E09-BC15-18D200EFBC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8048B7-7E68-4283-A63E-30E5133935DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="2" xr2:uid="{2C4EE221-5687-415E-840E-39D2437B629D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{2C4EE221-5687-415E-840E-39D2437B629D}"/>
   </bookViews>
   <sheets>
     <sheet name="vsegpt_generations" sheetId="1" r:id="rId1"/>
     <sheet name="Свод" sheetId="2" r:id="rId2"/>
     <sheet name="Подготовлен" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="50">
   <si>
     <t>...</t>
   </si>
@@ -169,6 +180,12 @@
   </si>
   <si>
     <t>Сумма по полю cost</t>
+  </si>
+  <si>
+    <t>RUB 1 pcs.</t>
+  </si>
+  <si>
+    <t>USD 1000 pcs.</t>
   </si>
 </sst>
 </file>
@@ -670,7 +687,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -679,6 +696,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1776,7 +1796,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19FA1C0A-DD27-4206-BD82-D812BEC77CA1}" name="Сводная таблица1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19FA1C0A-DD27-4206-BD82-D812BEC77CA1}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="22" showAll="0"/>
@@ -5381,11 +5401,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE68C57-A1C4-4049-A38D-85A29DF3A9DD}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5393,760 +5411,776 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="B1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B2" s="4">
         <v>0.40407599999999999</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C2" s="4">
         <v>0.304176</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D2" s="4">
         <v>0.30087599999999998</v>
       </c>
-      <c r="F1" s="5">
-        <f>B1/86.3*1000</f>
+      <c r="F2" s="5">
+        <f>B2/86.3*1000</f>
         <v>4.6822247972190043</v>
       </c>
-      <c r="G1" s="5">
-        <f t="shared" ref="G1:H1" si="0">C1/86.3*1000</f>
+      <c r="G2" s="5">
+        <f t="shared" ref="G2:H2" si="0">C2/86.3*1000</f>
         <v>3.5246349942062571</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H2" s="5">
         <f t="shared" si="0"/>
         <v>3.4863962920046352</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="4">
-        <v>20.358000000000001</v>
-      </c>
-      <c r="C2" s="4">
-        <v>14.733000000000001</v>
-      </c>
-      <c r="D2" s="4">
-        <v>14.583</v>
-      </c>
-      <c r="F2" s="5">
-        <f t="shared" ref="F2:F29" si="1">B2/86.3*1000</f>
-        <v>235.89803012746236</v>
-      </c>
-      <c r="G2" s="5">
-        <f t="shared" ref="G2:G29" si="2">C2/86.3*1000</f>
-        <v>170.71842410196987</v>
-      </c>
-      <c r="H2" s="5">
-        <f t="shared" ref="H2:H29" si="3">D2/86.3*1000</f>
-        <v>168.9803012746234</v>
-      </c>
-    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20.358000000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>14.733000000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>14.583</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F30" si="1">B3/86.3*1000</f>
+        <v>235.89803012746236</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G30" si="2">C3/86.3*1000</f>
+        <v>170.71842410196987</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H30" si="3">D3/86.3*1000</f>
+        <v>168.9803012746234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B4" s="4">
         <v>3.7776000000000001</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="4">
         <v>3.0306000000000002</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D4" s="4">
         <v>2.8266</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="5">
         <f t="shared" si="1"/>
         <v>43.772885283893402</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G4" s="5">
         <f t="shared" si="2"/>
         <v>35.117033603708002</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H4" s="5">
         <f t="shared" si="3"/>
         <v>32.753186558516809</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="4">
         <v>4.0926</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="4">
         <v>2.9346000000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D5" s="4">
         <v>2.9016000000000002</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
         <v>47.422943221320978</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G5" s="5">
         <f t="shared" si="2"/>
         <v>34.004634994206256</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H5" s="5">
         <f t="shared" si="3"/>
         <v>33.622247972190038</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>5.4728000000000003</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="4">
         <v>3.9647999999999999</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="4">
         <v>3.8567999999999998</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
         <v>63.4159907300116</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G6" s="5">
         <f t="shared" si="2"/>
         <v>45.942062572421783</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H6" s="5">
         <f t="shared" si="3"/>
         <v>44.690614136732329</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="4">
         <v>8.6959999999999997</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="4">
         <v>6.08</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="4">
         <v>5.4359999999999999</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
         <v>100.76477404403245</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G7" s="5">
         <f t="shared" si="2"/>
         <v>70.451911935110076</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H7" s="5">
         <f t="shared" si="3"/>
         <v>62.98957126303592</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B8" s="4">
         <v>0.24965000000000001</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="4">
         <v>0.11753</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="4">
         <v>0.11501</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
         <v>2.8928157589803014</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G8" s="5">
         <f t="shared" si="2"/>
         <v>1.3618771726535341</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H8" s="5">
         <f t="shared" si="3"/>
         <v>1.3326767091541136</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4">
         <v>0.24352499999999999</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>0.115995</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="4">
         <v>0.112695</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
         <v>2.8218424101969872</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G9" s="5">
         <f t="shared" si="2"/>
         <v>1.3440903823870221</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H9" s="5">
         <f t="shared" si="3"/>
         <v>1.3058516801853999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="4">
         <v>3.3609249999999999</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C10" s="4">
         <v>1.097045</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D10" s="4">
         <v>1.7330449999999999</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
         <v>38.944669756662805</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G10" s="5">
         <f t="shared" si="2"/>
         <v>12.711993047508692</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H10" s="5">
         <f t="shared" si="3"/>
         <v>20.081633835457705</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>7.6505000000000004E-2</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <v>5.5504999999999999E-2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <v>5.3405000000000001E-2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
         <v>0.88650057937427595</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G11" s="5">
         <f t="shared" si="2"/>
         <v>0.64316338354577052</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H11" s="5">
         <f t="shared" si="3"/>
         <v>0.61882966396292016</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B12" s="4">
         <v>1.42075</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C12" s="4">
         <v>1.02075</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D12" s="4">
         <v>1.02275</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
         <v>16.462920046349943</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G12" s="5">
         <f t="shared" si="2"/>
         <v>11.827925840092702</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H12" s="5">
         <f t="shared" si="3"/>
         <v>11.851100811123986</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="4">
-        <v>0.14312</v>
+        <v>0</v>
       </c>
       <c r="C13" s="4">
-        <v>0.10584</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4">
-        <v>0.10872</v>
+        <v>0</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>1.6584009269988413</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="2"/>
-        <v>1.2264194669756663</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="3"/>
-        <v>1.2597914252607185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4">
-        <v>0.33383000000000002</v>
+        <v>0.14312</v>
       </c>
       <c r="C14" s="4">
-        <v>0.127745</v>
+        <v>0.10584</v>
       </c>
       <c r="D14" s="4">
-        <v>0.33383000000000002</v>
+        <v>0.10872</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>3.868250289687138</v>
+        <v>1.6584009269988413</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="2"/>
-        <v>1.4802433371958286</v>
+        <v>1.2264194669756663</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="3"/>
-        <v>3.868250289687138</v>
+        <v>1.2597914252607185</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4">
-        <v>1.92354</v>
+        <v>0.33383000000000002</v>
       </c>
       <c r="C15" s="4">
-        <v>1.9411400000000001</v>
+        <v>0.127745</v>
       </c>
       <c r="D15" s="4">
-        <v>1.90066</v>
+        <v>0.33383000000000002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>22.28899188876014</v>
+        <v>3.868250289687138</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="2"/>
-        <v>22.492931633835461</v>
+        <v>1.4802433371958286</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="3"/>
-        <v>22.023870220162227</v>
+        <v>3.868250289687138</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4">
-        <v>2.5146000000000002</v>
+        <v>1.92354</v>
       </c>
       <c r="C16" s="4">
-        <v>2.5992000000000002</v>
+        <v>1.9411400000000001</v>
       </c>
       <c r="D16" s="4">
-        <v>2.5737000000000001</v>
+        <v>1.90066</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>29.137891077636159</v>
+        <v>22.28899188876014</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="2"/>
-        <v>30.118192352259562</v>
+        <v>22.492931633835461</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="3"/>
-        <v>29.822711471610663</v>
+        <v>22.023870220162227</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>0.31697999999999998</v>
+        <v>2.5146000000000002</v>
       </c>
       <c r="C17" s="4">
-        <v>0.25962000000000002</v>
+        <v>2.5992000000000002</v>
       </c>
       <c r="D17" s="4">
-        <v>0.25769999999999998</v>
+        <v>2.5737000000000001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>3.6730011587485514</v>
+        <v>29.137891077636159</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="2"/>
-        <v>3.0083429895712634</v>
+        <v>30.118192352259562</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="3"/>
-        <v>2.9860950173812282</v>
+        <v>29.822711471610663</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4">
-        <v>0.24585000000000001</v>
+        <v>0.31697999999999998</v>
       </c>
       <c r="C18" s="4">
-        <v>0.20680999999999999</v>
+        <v>0.25962000000000002</v>
       </c>
       <c r="D18" s="4">
-        <v>0.20329</v>
+        <v>0.25769999999999998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>2.8487833140208578</v>
+        <v>3.6730011587485514</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="2"/>
-        <v>2.3964078794901504</v>
+        <v>3.0083429895712634</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="3"/>
-        <v>2.3556199304750871</v>
+        <v>2.9860950173812282</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4">
-        <v>0.25290000000000001</v>
+        <v>0.24585000000000001</v>
       </c>
       <c r="C19" s="4">
-        <v>0.19305</v>
+        <v>0.20680999999999999</v>
       </c>
       <c r="D19" s="4">
-        <v>0.18865000000000001</v>
+        <v>0.20329</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>2.9304750869061418</v>
+        <v>2.8487833140208578</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="2"/>
-        <v>2.2369640787949017</v>
+        <v>2.3964078794901504</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="3"/>
-        <v>2.1859791425260719</v>
+        <v>2.3556199304750871</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="4">
-        <v>0.45663999999999999</v>
+        <v>0.25290000000000001</v>
       </c>
       <c r="C20" s="4">
-        <v>0.45567999999999997</v>
+        <v>0.19305</v>
       </c>
       <c r="D20" s="4">
-        <v>0.46079999999999999</v>
+        <v>0.18865000000000001</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="1"/>
-        <v>5.2913093858632676</v>
+        <v>2.9304750869061418</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="2"/>
-        <v>5.28018539976825</v>
+        <v>2.2369640787949017</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="3"/>
-        <v>5.3395133256083431</v>
+        <v>2.1859791425260719</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="4">
-        <v>8.7240000000000002</v>
+        <v>0.45663999999999999</v>
       </c>
       <c r="C21" s="4">
-        <v>6.7919999999999998</v>
+        <v>0.45567999999999997</v>
       </c>
       <c r="D21" s="4">
-        <v>6.6479999999999997</v>
+        <v>0.46079999999999999</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>101.08922363847046</v>
+        <v>5.2913093858632676</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="2"/>
-        <v>78.702201622247969</v>
+        <v>5.28018539976825</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="3"/>
-        <v>77.033603707995368</v>
+        <v>5.3395133256083431</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" s="4">
-        <v>4.1689999999999996</v>
+        <v>8.7240000000000002</v>
       </c>
       <c r="C22" s="4">
-        <v>3.4001000000000001</v>
+        <v>6.7919999999999998</v>
       </c>
       <c r="D22" s="4">
-        <v>3.2648000000000001</v>
+        <v>6.6479999999999997</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="1"/>
-        <v>48.308227114716104</v>
+        <v>101.08922363847046</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="2"/>
-        <v>39.398609501738122</v>
+        <v>78.702201622247969</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="3"/>
-        <v>37.830822711471612</v>
+        <v>77.033603707995368</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" s="4">
-        <v>2.3391500000000001</v>
+        <v>4.1689999999999996</v>
       </c>
       <c r="C23" s="4">
-        <v>1.7759499999999999</v>
+        <v>3.4001000000000001</v>
       </c>
       <c r="D23" s="4">
-        <v>1.7121500000000001</v>
+        <v>3.2648000000000001</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>27.104866743916574</v>
+        <v>48.308227114716104</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="2"/>
-        <v>20.578794901506374</v>
+        <v>39.398609501738122</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="3"/>
-        <v>19.839513325608344</v>
+        <v>37.830822711471612</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" s="4">
-        <v>1.071539</v>
+        <v>2.3391500000000001</v>
       </c>
       <c r="C24" s="4">
-        <v>1.032389</v>
+        <v>1.7759499999999999</v>
       </c>
       <c r="D24" s="4">
-        <v>1.0308889999999999</v>
+        <v>1.7121500000000001</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="1"/>
-        <v>12.416442641946698</v>
+        <v>27.104866743916574</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="2"/>
-        <v>11.96279258400927</v>
+        <v>20.578794901506374</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="3"/>
-        <v>11.945411355735805</v>
+        <v>19.839513325608344</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" s="4">
-        <v>4.4256799999999998</v>
+        <v>1.071539</v>
       </c>
       <c r="C25" s="4">
-        <v>2.7574399999999999</v>
+        <v>1.032389</v>
       </c>
       <c r="D25" s="4">
-        <v>3.1472000000000002</v>
+        <v>1.0308889999999999</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="1"/>
-        <v>51.282502896871378</v>
+        <v>12.416442641946698</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="2"/>
-        <v>31.951796060254924</v>
+        <v>11.96279258400927</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="3"/>
-        <v>36.468134414831987</v>
+        <v>11.945411355735805</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" s="4">
-        <v>10.6312</v>
+        <v>4.4256799999999998</v>
       </c>
       <c r="C26" s="4">
-        <v>2.2023999999999999</v>
+        <v>2.7574399999999999</v>
       </c>
       <c r="D26" s="4">
-        <v>2.2294</v>
+        <v>3.1472000000000002</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="1"/>
-        <v>123.18887601390497</v>
+        <v>51.282502896871378</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="2"/>
-        <v>25.520278099652373</v>
+        <v>31.951796060254924</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="3"/>
-        <v>25.833140208574743</v>
+        <v>36.468134414831987</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" s="4">
-        <v>1.12768</v>
+        <v>10.6312</v>
       </c>
       <c r="C27" s="4">
-        <v>0.76407999999999998</v>
+        <v>2.2023999999999999</v>
       </c>
       <c r="D27" s="4">
-        <v>0.76048000000000004</v>
+        <v>2.2294</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="1"/>
-        <v>13.066975666280419</v>
+        <v>123.18887601390497</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="2"/>
-        <v>8.8537659327925837</v>
+        <v>25.520278099652373</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="3"/>
-        <v>8.8120509849362705</v>
+        <v>25.833140208574743</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" s="4">
-        <v>0.31151000000000001</v>
+        <v>1.12768</v>
       </c>
       <c r="C28" s="4">
-        <v>0.26211000000000001</v>
+        <v>0.76407999999999998</v>
       </c>
       <c r="D28" s="4">
-        <v>0.24590999999999999</v>
+        <v>0.76048000000000004</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="1"/>
-        <v>3.609617612977984</v>
+        <v>13.066975666280419</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="2"/>
-        <v>3.0371958285052143</v>
+        <v>8.8537659327925837</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="3"/>
-        <v>2.8494785631517958</v>
+        <v>8.8120509849362705</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" s="4">
-        <v>5.3502999999999998</v>
+        <v>0.31151000000000001</v>
       </c>
       <c r="C29" s="4">
-        <v>1.1428</v>
+        <v>0.26211000000000001</v>
       </c>
       <c r="D29" s="4">
-        <v>1.1482000000000001</v>
+        <v>0.24590999999999999</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="1"/>
-        <v>61.996523754345304</v>
+        <v>3.609617612977984</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="2"/>
-        <v>13.242178447276942</v>
+        <v>3.0371958285052143</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="3"/>
+        <v>2.8494785631517958</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4">
+        <v>5.3502999999999998</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1.1428</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1.1482000000000001</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="1"/>
+        <v>61.996523754345304</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="2"/>
+        <v>13.242178447276942</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="3"/>
         <v>13.304750869061415</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/examples/extract_book_info/vsegpt_generations.xlsx
+++ b/examples/extract_book_info/vsegpt_generations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stas\NextCloud\GitHub\HomeLibraryAI\examples\extract_book_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8048B7-7E68-4283-A63E-30E5133935DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F48E13C-B0D8-4049-8529-BC6A921E30E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{2C4EE221-5687-415E-840E-39D2437B629D}"/>
   </bookViews>
